--- a/productos_extraidos.xlsx
+++ b/productos_extraidos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,780 +468,702 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>3797115</t>
+          <t>474532</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CUADERNO COLLEGE ROSS CUADRO 80 HJ 7 MM - 23997-6</t>
+          <t>CUADERNO UNIVERSITARIO PROARTE SPIDERMAN - 31928-7</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>60</v>
       </c>
       <c r="D2" t="n">
-        <v>43074</v>
+        <v>104941</v>
       </c>
       <c r="E2" t="n">
-        <v>25845</v>
+        <v>62965</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>831</t>
+          <t>861</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3797115</t>
+          <t>474532</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CUADERNO COLLEGE ROSS CUADRO 80 HJ 7 MM - 23997-6</t>
+          <t>CUADERNO UNIVERSITARIO PROARTE SPIDERMAN - 31928-7</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>60</v>
       </c>
       <c r="D3" t="n">
-        <v>43074</v>
+        <v>104941</v>
       </c>
       <c r="E3" t="n">
-        <v>25845</v>
+        <v>62965</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>832</t>
+          <t>862</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3797115</t>
+          <t>474532</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CUADERNO COLLEGE ROSS CUADRO 80 HJ 7 MM - 23997-6</t>
+          <t>CUADERNO UNIVERSITARIO PROARTE SPIDERMAN - 31928-7</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>60</v>
       </c>
       <c r="D4" t="n">
-        <v>43074</v>
+        <v>104941</v>
       </c>
       <c r="E4" t="n">
-        <v>25845</v>
+        <v>62965</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>833</t>
+          <t>863</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3797115</t>
+          <t>474532</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CUADERNO COLLEGE ROSS CUADRO 80 HJ 7 MM - 23997-6</t>
+          <t>CUADERNO UNIVERSITARIO PROARTE SPIDERMAN - 31928-7</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>60</v>
       </c>
       <c r="D5" t="n">
-        <v>43074</v>
+        <v>104941</v>
       </c>
       <c r="E5" t="n">
-        <v>25845</v>
+        <v>62965</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>834</t>
+          <t>864</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3797115</t>
+          <t>474532</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CUADERNO COLLEGE ROSS CUADRO 80 HJ 7 MM - 23997-6</t>
+          <t>CUADERNO UNIVERSITARIO PROARTE SPIDERMAN - 31928-7</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>60</v>
       </c>
       <c r="D6" t="n">
-        <v>43074</v>
+        <v>104941</v>
       </c>
       <c r="E6" t="n">
-        <v>25845</v>
+        <v>62965</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>835</t>
+          <t>865</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3797115</t>
+          <t>474532</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CUADERNO COLLEGE ROSS CUADRO 80 HJ 7 MM - 23997-6</t>
+          <t>CUADERNO UNIVERSITARIO PROARTE SPIDERMAN - 31928-7</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>60</v>
       </c>
       <c r="D7" t="n">
-        <v>43074</v>
+        <v>104941</v>
       </c>
       <c r="E7" t="n">
-        <v>25845</v>
+        <v>62965</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>836</t>
+          <t>866</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3797115</t>
+          <t>474532</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CUADERNO COLLEGE ROSS CUADRO 80 HJ 7 MM - 23997-6</t>
+          <t>CUADERNO UNIVERSITARIO PROARTE SPIDERMAN - 31928-7</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>60</v>
       </c>
       <c r="D8" t="n">
-        <v>43074</v>
+        <v>104941</v>
       </c>
       <c r="E8" t="n">
-        <v>25845</v>
+        <v>62965</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>837</t>
+          <t>867</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3797115</t>
+          <t>474532</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CUADERNO COLLEGE ROSS CUADRO 80 HJ 7 MM - 23997-6</t>
+          <t>CUADERNO UNIVERSITARIO PROARTE SPIDERMAN - 31928-7</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>60</v>
       </c>
       <c r="D9" t="n">
-        <v>43074</v>
+        <v>104941</v>
       </c>
       <c r="E9" t="n">
-        <v>25845</v>
+        <v>62965</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>838</t>
+          <t>868</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3797115</t>
+          <t>474532</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CUADERNO COLLEGE ROSS CUADRO 80 HJ 7 MM - 23997-6</t>
+          <t>CUADERNO UNIVERSITARIO PROARTE SPIDERMAN - 31928-7</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>60</v>
       </c>
       <c r="D10" t="n">
-        <v>43074</v>
+        <v>104941</v>
       </c>
       <c r="E10" t="n">
-        <v>25845</v>
+        <v>62965</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>839</t>
+          <t>869</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3797115</t>
+          <t>474532</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CUADERNO COLLEGE ROSS CUADRO 80 HJ 7 MM - 23997-6</t>
+          <t>CUADERNO UNIVERSITARIO PROARTE SPIDERMAN - 31928-7</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>60</v>
       </c>
       <c r="D11" t="n">
-        <v>43074</v>
+        <v>104941</v>
       </c>
       <c r="E11" t="n">
-        <v>25845</v>
+        <v>62965</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>840</t>
+          <t>870</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3797115</t>
+          <t>474532</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CUADERNO COLLEGE ROSS CUADRO 80 HJ 7 MM - 23997-6</t>
+          <t>CUADERNO UNIVERSITARIO PROARTE SPIDERMAN - 31928-7</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>60</v>
       </c>
       <c r="D12" t="n">
-        <v>43074</v>
+        <v>104941</v>
       </c>
       <c r="E12" t="n">
-        <v>25845</v>
+        <v>62965</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>841</t>
+          <t>871</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3797115</t>
+          <t>474532</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CUADERNO COLLEGE ROSS CUADRO 80 HJ 7 MM - 23997-6</t>
+          <t>CUADERNO UNIVERSITARIO PROARTE SPIDERMAN - 31928-7</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>60</v>
       </c>
       <c r="D13" t="n">
-        <v>43074</v>
+        <v>104941</v>
       </c>
       <c r="E13" t="n">
-        <v>25845</v>
+        <v>62965</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>842</t>
+          <t>872</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3797115</t>
+          <t>474532</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CUADERNO COLLEGE ROSS CUADRO 80 HJ 7 MM - 23997-6</t>
+          <t>CUADERNO UNIVERSITARIO PROARTE SPIDERMAN - 31928-7</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>60</v>
       </c>
       <c r="D14" t="n">
-        <v>43074</v>
+        <v>104941</v>
       </c>
       <c r="E14" t="n">
-        <v>25845</v>
+        <v>62965</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>843</t>
+          <t>873</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3797115</t>
+          <t>474532</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CUADERNO COLLEGE ROSS CUADRO 80 HJ 7 MM - 23997-6</t>
+          <t>CUADERNO UNIVERSITARIO PROARTE SPIDERMAN - 31928-7</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>60</v>
       </c>
       <c r="D15" t="n">
-        <v>43074</v>
+        <v>104941</v>
       </c>
       <c r="E15" t="n">
-        <v>25845</v>
+        <v>62965</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>844</t>
+          <t>874</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3797115</t>
+          <t>474532</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CUADERNO COLLEGE ROSS CUADRO 80 HJ 7 MM - 23997-6</t>
+          <t>CUADERNO UNIVERSITARIO PROARTE SPIDERMAN - 31928-7</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>60</v>
       </c>
       <c r="D16" t="n">
-        <v>43074</v>
+        <v>104941</v>
       </c>
       <c r="E16" t="n">
-        <v>25845</v>
+        <v>62965</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>845</t>
+          <t>875</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3797115</t>
+          <t>474532</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CUADERNO COLLEGE ROSS CUADRO 80 HJ 7 MM - 23997-6</t>
+          <t>CUADERNO UNIVERSITARIO PROARTE SPIDERMAN - 31928-7</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>60</v>
       </c>
       <c r="D17" t="n">
-        <v>43074</v>
+        <v>104941</v>
       </c>
       <c r="E17" t="n">
-        <v>25845</v>
+        <v>62965</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>846</t>
+          <t>876</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3797115</t>
+          <t>474532</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CUADERNO COLLEGE ROSS CUADRO 80 HJ 7 MM - 23997-6</t>
+          <t>CUADERNO UNIVERSITARIO PROARTE SPIDERMAN - 31928-7</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>60</v>
       </c>
       <c r="D18" t="n">
-        <v>43074</v>
+        <v>104941</v>
       </c>
       <c r="E18" t="n">
-        <v>25845</v>
+        <v>62965</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>847</t>
+          <t>877</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3797115</t>
+          <t>489285</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CUADERNO COLLEGE ROSS CUADRO 80 HJ 7 MM - 23997-6</t>
+          <t>CUAD COLO COLO UNIVERSITARIO 7MM</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>60</v>
       </c>
       <c r="D19" t="n">
-        <v>43074</v>
+        <v>163371</v>
       </c>
       <c r="E19" t="n">
-        <v>25845</v>
+        <v>98023</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>848</t>
+          <t>879</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3797115</t>
+          <t>489285</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CUADERNO COLLEGE ROSS CUADRO 80 HJ 7 MM - 23997-6</t>
+          <t>CUAD COLO COLO UNIVERSITARIO 7MM</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>60</v>
       </c>
       <c r="D20" t="n">
-        <v>43074</v>
+        <v>163371</v>
       </c>
       <c r="E20" t="n">
-        <v>25845</v>
+        <v>98023</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>849</t>
+          <t>880</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3797115</t>
+          <t>489285</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CUADERNO COLLEGE ROSS CUADRO 80 HJ 7 MM - 23997-6</t>
+          <t>CUAD COLO COLO UNIVERSITARIO 7MM</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>60</v>
       </c>
       <c r="D21" t="n">
-        <v>43074</v>
+        <v>163371</v>
       </c>
       <c r="E21" t="n">
-        <v>25845</v>
+        <v>98023</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>850</t>
+          <t>881</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3797115</t>
+          <t>489285</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CUADERNO COLLEGE ROSS CUADRO 80 HJ 7 MM - 23997-6</t>
+          <t>CUAD COLO COLO UNIVERSITARIO 7MM</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>60</v>
       </c>
       <c r="D22" t="n">
-        <v>43074</v>
+        <v>163371</v>
       </c>
       <c r="E22" t="n">
-        <v>25845</v>
+        <v>98023</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>851</t>
+          <t>882</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3797115</t>
+          <t>489285</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CUADERNO COLLEGE ROSS CUADRO 80 HJ 7 MM - 23997-6</t>
+          <t>CUAD COLO COLO UNIVERSITARIO 7MM</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>60</v>
       </c>
       <c r="D23" t="n">
-        <v>43074</v>
+        <v>163371</v>
       </c>
       <c r="E23" t="n">
-        <v>25845</v>
+        <v>98023</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>852</t>
+          <t>883</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3797115</t>
+          <t>489285</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CUADERNO COLLEGE ROSS CUADRO 80 HJ 7 MM - 23997-6</t>
+          <t>CUAD COLO COLO UNIVERSITARIO 7MM</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>60</v>
       </c>
       <c r="D24" t="n">
-        <v>43074</v>
+        <v>163371</v>
       </c>
       <c r="E24" t="n">
-        <v>25845</v>
+        <v>98023</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>853</t>
+          <t>884</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>3797115</t>
+          <t>489285</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CUADERNO COLLEGE ROSS CUADRO 80 HJ 7 MM - 23997-6</t>
+          <t>CUAD COLO COLO UNIVERSITARIO 7MM</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>60</v>
       </c>
       <c r="D25" t="n">
-        <v>43074</v>
+        <v>163371</v>
       </c>
       <c r="E25" t="n">
-        <v>25845</v>
+        <v>98023</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>854</t>
+          <t>885</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3797115</t>
+          <t>489282</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CUADERNO COLLEGE ROSS CUADRO 80 HJ 7 MM - 23997-6</t>
+          <t>CUAD COLO COLO 5MM COLLEGE</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>60</v>
       </c>
       <c r="D26" t="n">
-        <v>43074</v>
+        <v>84597</v>
       </c>
       <c r="E26" t="n">
-        <v>25845</v>
+        <v>50758</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>855</t>
+          <t>886</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3797115</t>
+          <t>489289</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CUADERNO COLLEGE ROSS CUADRO 80 HJ 7 MM - 23997-6</t>
+          <t>CUAD PAILITA UNIVERSITARIO 7MM</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>60</v>
       </c>
       <c r="D27" t="n">
-        <v>43074</v>
+        <v>102310</v>
       </c>
       <c r="E27" t="n">
-        <v>25845</v>
+        <v>61386</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>856</t>
+          <t>887</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3797115</t>
+          <t>489282</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CUADERNO COLLEGE ROSS CUADRO 80 HJ 7 MM - 23997-6</t>
+          <t>CUAD COLO COLO 5MM COLLEGE</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>60</v>
       </c>
       <c r="D28" t="n">
-        <v>43074</v>
+        <v>84597</v>
       </c>
       <c r="E28" t="n">
-        <v>25845</v>
+        <v>50758</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>857</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>3797115</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>CUADERNO COLLEGE ROSS CUADRO 80 HJ 7 MM - 23997-6</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>60</v>
-      </c>
-      <c r="D29" t="n">
-        <v>43074</v>
-      </c>
-      <c r="E29" t="n">
-        <v>25845</v>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>858</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>3797115</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>CUADERNO COLLEGE ROSS CUADRO 80 HJ 7 MM - 23997-6</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>60</v>
-      </c>
-      <c r="D30" t="n">
-        <v>43074</v>
-      </c>
-      <c r="E30" t="n">
-        <v>25845</v>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>859</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>3797115</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>CUADERNO COLLEGE ROSS CUADRO 80 HJ 7 MM - 23997-6</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>60</v>
-      </c>
-      <c r="D31" t="n">
-        <v>43074</v>
-      </c>
-      <c r="E31" t="n">
-        <v>25845</v>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>860</t>
+          <t>888</t>
         </is>
       </c>
     </row>
